--- a/public/DataActivity/Template-Tim-Siarsip.xlsx
+++ b/public/DataActivity/Template-Tim-Siarsip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPS KOTA MALANG 5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74633C54-0FDA-48EF-ACA3-98BC5140E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C610F9D9-DF9E-4427-9FFB-5E3BFBD1BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5F0BA9B-2D6B-4CB9-836E-272F83981F67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>no</t>
   </si>
@@ -124,6 +124,69 @@
   </si>
   <si>
     <t>Tim 1</t>
+  </si>
+  <si>
+    <t>Tim 5</t>
+  </si>
+  <si>
+    <t>kegiatan 12</t>
+  </si>
+  <si>
+    <t>code 12</t>
+  </si>
+  <si>
+    <t>Tim 6</t>
+  </si>
+  <si>
+    <t>kegiatan 13</t>
+  </si>
+  <si>
+    <t>code 13</t>
+  </si>
+  <si>
+    <t>Tim 7</t>
+  </si>
+  <si>
+    <t>kegiatan 14</t>
+  </si>
+  <si>
+    <t>code 14</t>
+  </si>
+  <si>
+    <t>Tim 8</t>
+  </si>
+  <si>
+    <t>kegiatan 15</t>
+  </si>
+  <si>
+    <t>code 15</t>
+  </si>
+  <si>
+    <t>Tim 9</t>
+  </si>
+  <si>
+    <t>kegiatan 16</t>
+  </si>
+  <si>
+    <t>code 16</t>
+  </si>
+  <si>
+    <t>Tim 10</t>
+  </si>
+  <si>
+    <t>kegiatan 17</t>
+  </si>
+  <si>
+    <t>code 17</t>
+  </si>
+  <si>
+    <t>Tim 11</t>
+  </si>
+  <si>
+    <t>kegiatan 18</t>
+  </si>
+  <si>
+    <t>code 18</t>
   </si>
 </sst>
 </file>
@@ -481,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB66889F-3FEE-4326-B420-47939ACBC07C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D12" sqref="A12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +684,104 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
